--- a/excels/formula1_results.xlsx
+++ b/excels/formula1_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,52 +468,28 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Bahrain</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>05 Mar 2023</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Max Verstappen</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>RED BULL RACING HONDA RBPT</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1:33:56.736</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19 Mar 2023</t>
+          <t>05 Mar 2023</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sergio Perez</t>
+          <t>Max Verstappen</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -523,12 +499,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1:21:14.894</t>
+          <t>1:33:56.736</t>
         </is>
       </c>
     </row>
@@ -536,17 +512,17 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>02 Apr 2023</t>
+          <t>19 Mar 2023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Max Verstappen</t>
+          <t>Sergio Perez</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -556,12 +532,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2:32:38.371</t>
+          <t>1:21:14.894</t>
         </is>
       </c>
     </row>
@@ -569,17 +545,17 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>30 Apr 2023</t>
+          <t>02 Apr 2023</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sergio Perez</t>
+          <t>Max Verstappen</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +565,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1:32:42.436</t>
+          <t>2:32:38.371</t>
         </is>
       </c>
     </row>
@@ -602,17 +578,17 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07 May 2023</t>
+          <t>30 Apr 2023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Max Verstappen</t>
+          <t>Sergio Perez</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -622,12 +598,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1:27:38.241</t>
+          <t>1:32:42.436</t>
         </is>
       </c>
     </row>
@@ -635,12 +611,12 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>28 May 2023</t>
+          <t>07 May 2023</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,12 +631,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1:48:51.980</t>
+          <t>1:27:38.241</t>
         </is>
       </c>
     </row>
@@ -668,12 +644,12 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>04 Jun 2023</t>
+          <t>28 May 2023</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -688,12 +664,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1:27:57.940</t>
+          <t>1:48:51.980</t>
         </is>
       </c>
     </row>
@@ -701,12 +677,12 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18 Jun 2023</t>
+          <t>04 Jun 2023</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -721,12 +697,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1:33:58.348</t>
+          <t>1:27:57.940</t>
         </is>
       </c>
     </row>
@@ -734,12 +710,12 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>02 Jul 2023</t>
+          <t>18 Jun 2023</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -754,12 +730,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1:25:33.607</t>
+          <t>1:33:58.348</t>
         </is>
       </c>
     </row>
@@ -767,12 +743,12 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09 Jul 2023</t>
+          <t>02 Jul 2023</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -787,12 +763,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1:25:16.938</t>
+          <t>1:25:33.607</t>
         </is>
       </c>
     </row>
@@ -800,12 +776,12 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>23 Jul 2023</t>
+          <t>09 Jul 2023</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -820,12 +796,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1:38:08.634</t>
+          <t>1:25:16.938</t>
         </is>
       </c>
     </row>
@@ -833,12 +809,12 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>30 Jul 2023</t>
+          <t>23 Jul 2023</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -853,12 +829,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1:22:30.450</t>
+          <t>1:38:08.634</t>
         </is>
       </c>
     </row>
@@ -866,12 +842,12 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>27 Aug 2023</t>
+          <t>30 Jul 2023</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -886,12 +862,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2:24:04.411</t>
+          <t>1:22:30.450</t>
         </is>
       </c>
     </row>
@@ -899,12 +875,12 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>03 Sep 2023</t>
+          <t>27 Aug 2023</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -919,12 +895,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1:13:41.143</t>
+          <t>2:24:04.411</t>
         </is>
       </c>
     </row>
@@ -932,32 +908,32 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17 Sep 2023</t>
+          <t>03 Sep 2023</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Carlos Sainz</t>
+          <t>Max Verstappen</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FERRARI</t>
+          <t>RED BULL RACING HONDA RBPT</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1:46:37.418</t>
+          <t>1:13:41.143</t>
         </is>
       </c>
     </row>
@@ -965,32 +941,32 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>24 Sep 2023</t>
+          <t>17 Sep 2023</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Max Verstappen</t>
+          <t>Carlos Sainz</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RED BULL RACING HONDA RBPT</t>
+          <t>FERRARI</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1:30:58.421</t>
+          <t>1:46:37.418</t>
         </is>
       </c>
     </row>
@@ -998,12 +974,12 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08 Oct 2023</t>
+          <t>24 Sep 2023</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1018,12 +994,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1:27:39.168</t>
+          <t>1:30:58.421</t>
         </is>
       </c>
     </row>
@@ -1031,12 +1007,12 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>22 Oct 2023</t>
+          <t>08 Oct 2023</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1051,12 +1027,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1:35:21.362</t>
+          <t>1:27:39.168</t>
         </is>
       </c>
     </row>
@@ -1064,12 +1040,12 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>29 Oct 2023</t>
+          <t>22 Oct 2023</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1084,12 +1060,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2:02:30.814</t>
+          <t>1:35:21.362</t>
         </is>
       </c>
     </row>
@@ -1097,12 +1073,12 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>05 Nov 2023</t>
+          <t>29 Oct 2023</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1122,7 +1098,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1:56:48.894</t>
+          <t>2:02:30.814</t>
         </is>
       </c>
     </row>
@@ -1130,12 +1106,12 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Las Vegas</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18 Nov 2023</t>
+          <t>05 Nov 2023</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1150,12 +1126,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1:29:08.289</t>
+          <t>1:56:48.894</t>
         </is>
       </c>
     </row>
@@ -1163,30 +1139,63 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
+          <t>Las Vegas</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>18 Nov 2023</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Max Verstappen</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>RED BULL RACING HONDA RBPT</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1:29:08.289</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>Abu Dhabi</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>26 Nov 2023</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Max Verstappen</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>RED BULL RACING HONDA RBPT</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Max Verstappen</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>RED BULL RACING HONDA RBPT</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>1:27:02.624</t>
         </is>
